--- a/ENS_215/Data/Class_survey_2023.xlsx
+++ b/ENS_215/Data/Class_survey_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6900" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Topic</t>
   </si>
@@ -72,9 +72,6 @@
     <t>GEO</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -237,10 +234,19 @@
     <t>BIO</t>
   </si>
   <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>ES</t>
+  </si>
+  <si>
+    <t>ECON</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>POL SCI</t>
+  </si>
+  <si>
+    <t>PSYC</t>
   </si>
 </sst>
 </file>
@@ -567,11 +573,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -588,10 +592,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,18 +608,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -648,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,15 +702,15 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,10 +729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,15 +774,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -764,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,15 +797,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -791,242 +813,257 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/ENS_215/Data/Class_survey_2023.xlsx
+++ b/ENS_215/Data/Class_survey_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -575,7 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
